--- a/src/main/resources/cases/add_project.xlsx
+++ b/src/main/resources/cases/add_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9815E36-0A4A-3640-AE5D-914846D28067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAADEB29-EECE-0646-B38A-986EB69988C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2220" yWindow="-18460" windowWidth="31220" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Desc(用例描述)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>自动化测试项目-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,9 +501,6 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">

--- a/src/main/resources/cases/add_project.xlsx
+++ b/src/main/resources/cases/add_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAADEB29-EECE-0646-B38A-986EB69988C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DABE9C-6F69-634C-8AE5-F5631D33A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2220" yWindow="-18460" windowWidth="31220" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsPostive(是否为正向用例)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ExpectedTips(错误条件提示值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +62,10 @@
   </si>
   <si>
     <t>自动化测试项目-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPositive(是否为正向用例)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,9 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -411,22 +409,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -434,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -445,13 +443,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -459,16 +457,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -476,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -493,13 +491,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -507,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
